--- a/Team-Data/2007-08/1-20-2007-08.xlsx
+++ b/Team-Data/2007-08/1-20-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -762,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2852,7 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
         <v>27</v>
@@ -2818,7 +2885,7 @@
         <v>14</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3516,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" t="n">
-        <v>0.45</v>
+        <v>0.462</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3778,7 +3845,7 @@
         <v>33.6</v>
       </c>
       <c r="J19" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K19" t="n">
         <v>0.434</v>
@@ -3787,46 +3854,46 @@
         <v>5.5</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="O19" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P19" t="n">
         <v>28.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.72</v>
+        <v>0.718</v>
       </c>
       <c r="R19" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S19" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T19" t="n">
         <v>41.8</v>
       </c>
       <c r="U19" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W19" t="n">
         <v>6.7</v>
       </c>
       <c r="X19" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="AA19" t="n">
         <v>23.4</v>
@@ -3835,10 +3902,10 @@
         <v>93.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.5</v>
+        <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,13 +3917,13 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
@@ -3877,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
@@ -3910,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.707</v>
+        <v>0.7</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="J24" t="n">
-        <v>85.3</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.49</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O24" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R24" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
         <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>27.6</v>
       </c>
       <c r="V24" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W24" t="n">
         <v>7.2</v>
@@ -4733,31 +4800,31 @@
         <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z24" t="n">
         <v>19.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>110</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AD24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE24" t="n">
         <v>3</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH24" t="n">
         <v>27</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
         <v>24</v>
@@ -4787,7 +4854,7 @@
         <v>26</v>
       </c>
       <c r="AQ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4805,13 +4872,13 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4823,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4993,7 +5060,7 @@
         <v>19</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
         <v>20</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -5324,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="BC27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5518,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2007-08</t>
+          <t>2008-01-20</t>
         </is>
       </c>
     </row>
